--- a/WIP/Users/LucPT/FAP_TestViewpoint_Forgot password_v1.0_EN.xlsx
+++ b/WIP/Users/LucPT/FAP_TestViewpoint_Forgot password_v1.0_EN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\2015SUMJS01\WIP\Users\LucPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -675,11 +675,6 @@
     <t>Requirement</t>
   </si>
   <si>
-    <t>Check display:
-- Window 7
--Browser: Firefox, Chrome, IE</t>
-  </si>
-  <si>
     <t>1.1.1.2</t>
   </si>
   <si>
@@ -1006,14 +1001,6 @@
     <t>Forgot password Screen</t>
   </si>
   <si>
-    <t>- Web title: Quên mật khẩu
-- Display normally, there is not push, breaking font
-- Display text, textbox, button, color, background and arrangement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word that user input is displayed </t>
-  </si>
-  <si>
     <t>- Display full item
 - All items (text and textbox, button) is left-aligned
 - Text's color is black and title's color is black.</t>
@@ -1043,6 +1030,18 @@
   </si>
   <si>
     <t>FAP_Software requirement specification_v1.0</t>
+  </si>
+  <si>
+    <t>Word that user input is displayed. User just can input 100 characters</t>
+  </si>
+  <si>
+    <t>Check display:
+-Browser: Firefox, Chrome</t>
+  </si>
+  <si>
+    <t>- Web title: Forgot password
+- Display normally, there is not push, breaking font
+- Display text, textbox, button, color, background and arrangement</t>
   </si>
 </sst>
 </file>
@@ -3039,6 +3038,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3056,27 +3076,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6206,9 +6205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6226,14 +6223,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6248,44 +6245,44 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="C4" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="C5" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="112" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="C6" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6294,11 +6291,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6321,10 +6318,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6342,10 +6339,10 @@
       <c r="B10" s="22">
         <v>42345</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="103"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6354,13 +6351,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6368,8 +6365,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6377,8 +6374,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6386,8 +6383,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6395,8 +6392,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6404,8 +6401,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6413,12 +6410,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6426,6 +6417,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6441,8 +6438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M112"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6563,7 +6560,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6632,23 +6629,23 @@
         <v>37</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="79.5" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="56"/>
       <c r="F10" s="56"/>
       <c r="G10" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="49" t="s">
         <v>35</v>
@@ -6660,21 +6657,21 @@
         <v>37</v>
       </c>
       <c r="K10" s="56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
       <c r="A11" s="45"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -6688,12 +6685,12 @@
       <c r="A12" s="47"/>
       <c r="B12" s="48"/>
       <c r="C12" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6706,13 +6703,13 @@
       <c r="A13" s="47"/>
       <c r="B13" s="48"/>
       <c r="C13" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6724,22 +6721,22 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="18.75" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="48"/>
       <c r="C14" s="49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="60"/>
       <c r="E14" s="61"/>
       <c r="F14" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
@@ -6752,13 +6749,13 @@
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
       <c r="C15" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="63"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6770,17 +6767,17 @@
         <v>37</v>
       </c>
       <c r="K15" s="59" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L15" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="63"/>
@@ -6790,10 +6787,10 @@
       <c r="I16" s="57"/>
       <c r="J16" s="58"/>
       <c r="K16" s="59" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L16" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
@@ -7904,7 +7901,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -7933,25 +7930,25 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="G2" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="H2" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="I2" s="81" t="s">
         <v>53</v>
-      </c>
-      <c r="I2" s="81" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -7963,70 +7960,70 @@
         <v>37</v>
       </c>
       <c r="E3" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="G3" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="H3" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="85" t="s">
+      <c r="I3" s="84" t="s">
         <v>58</v>
-      </c>
-      <c r="I3" s="84" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="83"/>
       <c r="D4" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="F4" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="G4" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="H4" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="85" t="s">
+      <c r="I4" s="85" t="s">
         <v>64</v>
-      </c>
-      <c r="I4" s="85" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="83"/>
       <c r="D5" s="84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="83"/>
       <c r="F5" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="83"/>
       <c r="H5" s="85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" s="83"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="83"/>
       <c r="D6" s="84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="83"/>
       <c r="F6" s="83"/>
@@ -8036,7 +8033,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="83"/>
       <c r="D7" s="83"/>
@@ -8048,7 +8045,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="83"/>
       <c r="D8" s="83"/>
@@ -8195,7 +8192,7 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -8203,13 +8200,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="87" t="s">
         <v>70</v>
-      </c>
-      <c r="E4" s="87" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -8218,7 +8215,7 @@
       </c>
       <c r="C5" s="119"/>
       <c r="D5" s="88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="88"/>
     </row>
@@ -8228,358 +8225,358 @@
         <v>37</v>
       </c>
       <c r="D6" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="90" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="24" customHeight="1">
       <c r="B7" s="116"/>
       <c r="C7" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="E7" s="91" t="s">
         <v>76</v>
-      </c>
-      <c r="E7" s="91" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21.75" customHeight="1">
       <c r="B8" s="116"/>
       <c r="C8" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="E8" s="91" t="s">
         <v>79</v>
-      </c>
-      <c r="E8" s="91" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="116"/>
       <c r="C9" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="E9" s="93" t="s">
         <v>82</v>
-      </c>
-      <c r="E9" s="93" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="23.25" customHeight="1">
       <c r="B10" s="117"/>
       <c r="C10" s="89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="91" t="s">
         <v>84</v>
-      </c>
-      <c r="E10" s="91" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.25" customHeight="1">
       <c r="B11" s="118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="119"/>
       <c r="D11" s="88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="88"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="115"/>
       <c r="C12" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="95" t="s">
-        <v>88</v>
-      </c>
       <c r="E12" s="95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="116"/>
       <c r="C13" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="E13" s="90" t="s">
         <v>90</v>
-      </c>
-      <c r="E13" s="90" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="38.25">
       <c r="B14" s="116"/>
       <c r="C14" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="E14" s="91" t="s">
         <v>93</v>
-      </c>
-      <c r="E14" s="91" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="117"/>
       <c r="C15" s="94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="95"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="119"/>
       <c r="D16" s="88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="88"/>
     </row>
     <row r="17" spans="2:5" ht="25.5">
       <c r="B17" s="115"/>
       <c r="C17" s="89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="90" t="s">
         <v>97</v>
-      </c>
-      <c r="E17" s="90" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="25.5">
       <c r="B18" s="116"/>
       <c r="C18" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="96" t="s">
         <v>99</v>
-      </c>
-      <c r="D18" s="96" t="s">
-        <v>100</v>
       </c>
       <c r="E18" s="95"/>
     </row>
     <row r="19" spans="2:5" ht="38.25">
       <c r="B19" s="116"/>
       <c r="C19" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="E19" s="91" t="s">
         <v>102</v>
-      </c>
-      <c r="E19" s="91" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="116"/>
       <c r="C20" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="95" t="s">
         <v>104</v>
-      </c>
-      <c r="D20" s="95" t="s">
-        <v>105</v>
       </c>
       <c r="E20" s="95"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="117"/>
       <c r="C21" s="89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="90"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="118" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="119"/>
       <c r="D22" s="88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="88"/>
     </row>
     <row r="23" spans="2:5" ht="51">
       <c r="B23" s="115"/>
       <c r="C23" s="89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="90" t="s">
         <v>108</v>
-      </c>
-      <c r="E23" s="90" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="25.5">
       <c r="B24" s="116"/>
       <c r="C24" s="89" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="91" t="s">
         <v>110</v>
-      </c>
-      <c r="E24" s="91" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="117"/>
       <c r="C25" s="94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="95"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="119"/>
       <c r="D26" s="88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" s="88"/>
     </row>
     <row r="27" spans="2:5" ht="127.5">
       <c r="B27" s="115"/>
       <c r="C27" s="89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="91" t="s">
         <v>113</v>
-      </c>
-      <c r="E27" s="91" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="116"/>
       <c r="C28" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="95" t="s">
-        <v>116</v>
-      </c>
       <c r="E28" s="95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="116"/>
       <c r="C29" s="89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="90" t="s">
         <v>117</v>
-      </c>
-      <c r="E29" s="90" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="116"/>
       <c r="C30" s="89" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="90" t="s">
         <v>119</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="117"/>
       <c r="C31" s="94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" s="95"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="119"/>
       <c r="D32" s="88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E32" s="88"/>
     </row>
     <row r="33" spans="2:5" ht="38.25">
       <c r="B33" s="115"/>
       <c r="C33" s="97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="E33" s="99" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="116"/>
       <c r="C34" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="93" t="s">
+      <c r="E34" s="93" t="s">
         <v>125</v>
-      </c>
-      <c r="E34" s="93" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="116"/>
       <c r="C35" s="94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" s="95"/>
     </row>
     <row r="36" spans="2:5" ht="25.5">
       <c r="B36" s="116"/>
       <c r="C36" s="89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="91" t="s">
         <v>128</v>
-      </c>
-      <c r="E36" s="91" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="117"/>
       <c r="C37" s="94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" s="95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
